--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H2">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I2">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J2">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>172.9796236144755</v>
+        <v>230.3968397574353</v>
       </c>
       <c r="R2">
-        <v>172.9796236144755</v>
+        <v>2073.571557816918</v>
       </c>
       <c r="S2">
-        <v>0.04995099269159888</v>
+        <v>0.05591559823893365</v>
       </c>
       <c r="T2">
-        <v>0.04995099269159888</v>
+        <v>0.05591559823893365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H3">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I3">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J3">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>88.81447355044442</v>
+        <v>115.8666152739493</v>
       </c>
       <c r="R3">
-        <v>88.81447355044442</v>
+        <v>1042.799537465544</v>
       </c>
       <c r="S3">
-        <v>0.02564678443926965</v>
+        <v>0.02811996516872433</v>
       </c>
       <c r="T3">
-        <v>0.02564678443926965</v>
+        <v>0.02811996516872434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H4">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I4">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J4">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>78.78272733627054</v>
+        <v>110.9466721718113</v>
       </c>
       <c r="R4">
-        <v>78.78272733627054</v>
+        <v>998.5200495463019</v>
       </c>
       <c r="S4">
-        <v>0.02274993640967178</v>
+        <v>0.0269259315954028</v>
       </c>
       <c r="T4">
-        <v>0.02274993640967178</v>
+        <v>0.0269259315954028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.49633318087268</v>
+        <v>1.951738</v>
       </c>
       <c r="H5">
-        <v>1.49633318087268</v>
+        <v>5.855214</v>
       </c>
       <c r="I5">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="J5">
-        <v>0.104368682008568</v>
+        <v>0.1200622759026226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>20.85053375864571</v>
+        <v>37.49921711691334</v>
       </c>
       <c r="R5">
-        <v>20.85053375864571</v>
+        <v>337.49295405222</v>
       </c>
       <c r="S5">
-        <v>0.006020968468027645</v>
+        <v>0.009100780899561806</v>
       </c>
       <c r="T5">
-        <v>0.006020968468027645</v>
+        <v>0.009100780899561808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H6">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I6">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J6">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>1081.805611711933</v>
+        <v>1139.733319196227</v>
       </c>
       <c r="R6">
-        <v>1081.805611711933</v>
+        <v>10257.59987276605</v>
       </c>
       <c r="S6">
-        <v>0.3123909225562183</v>
+        <v>0.2766047938973343</v>
       </c>
       <c r="T6">
-        <v>0.3123909225562183</v>
+        <v>0.2766047938973344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H7">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I7">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J7">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>555.4411200607532</v>
+        <v>573.1721066540749</v>
       </c>
       <c r="R7">
-        <v>555.4411200607532</v>
+        <v>5158.548959886675</v>
       </c>
       <c r="S7">
-        <v>0.1603936622651224</v>
+        <v>0.1391046043477608</v>
       </c>
       <c r="T7">
-        <v>0.1603936622651224</v>
+        <v>0.1391046043477608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H8">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I8">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J8">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>492.7030985354533</v>
+        <v>548.833999030898</v>
       </c>
       <c r="R8">
-        <v>492.7030985354533</v>
+        <v>4939.505991278083</v>
       </c>
       <c r="S8">
-        <v>0.1422769246447419</v>
+        <v>0.1331979267683884</v>
       </c>
       <c r="T8">
-        <v>0.1422769246447419</v>
+        <v>0.1331979267683885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.357990254774551</v>
+        <v>9.654910333333332</v>
       </c>
       <c r="H9">
-        <v>9.357990254774551</v>
+        <v>28.964731</v>
       </c>
       <c r="I9">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="J9">
-        <v>0.6527163345868133</v>
+        <v>0.5939273141455197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>130.398158788712</v>
+        <v>185.5021415958477</v>
       </c>
       <c r="R9">
-        <v>130.398158788712</v>
+        <v>1669.51927436263</v>
       </c>
       <c r="S9">
-        <v>0.03765482512073076</v>
+        <v>0.04501998913203611</v>
       </c>
       <c r="T9">
-        <v>0.03765482512073076</v>
+        <v>0.04501998913203612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H10">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I10">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J10">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>93.16400340036854</v>
+        <v>124.0601697455769</v>
       </c>
       <c r="R10">
-        <v>93.16400340036854</v>
+        <v>1116.541527710192</v>
       </c>
       <c r="S10">
-        <v>0.02690278979530899</v>
+        <v>0.03010847985697565</v>
       </c>
       <c r="T10">
-        <v>0.02690278979530899</v>
+        <v>0.03010847985697565</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H11">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I11">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J11">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>47.834026592038</v>
+        <v>62.38988335892621</v>
       </c>
       <c r="R11">
-        <v>47.834026592038</v>
+        <v>561.5089502303359</v>
       </c>
       <c r="S11">
-        <v>0.0138129397138351</v>
+        <v>0.01514156034320808</v>
       </c>
       <c r="T11">
-        <v>0.0138129397138351</v>
+        <v>0.01514156034320809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H12">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I12">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J12">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>42.43109173254326</v>
+        <v>59.74067611705422</v>
       </c>
       <c r="R12">
-        <v>42.43109173254326</v>
+        <v>537.666085053488</v>
       </c>
       <c r="S12">
-        <v>0.01225274462241034</v>
+        <v>0.01449861746281032</v>
       </c>
       <c r="T12">
-        <v>0.01225274462241034</v>
+        <v>0.01449861746281032</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.805900641000359</v>
+        <v>1.050938666666667</v>
       </c>
       <c r="H13">
-        <v>0.805900641000359</v>
+        <v>3.152816</v>
       </c>
       <c r="I13">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="J13">
-        <v>0.05621126952622483</v>
+        <v>0.06464909129917419</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>11.22975734020161</v>
+        <v>20.19194033107556</v>
       </c>
       <c r="R13">
-        <v>11.22975734020161</v>
+        <v>181.72746297968</v>
       </c>
       <c r="S13">
-        <v>0.003242795394670394</v>
+        <v>0.004900433636180139</v>
       </c>
       <c r="T13">
-        <v>0.003242795394670394</v>
+        <v>0.00490043363618014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H14">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I14">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J14">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N14">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q14">
-        <v>309.4408929247379</v>
+        <v>424.7874520010066</v>
       </c>
       <c r="R14">
-        <v>309.4408929247379</v>
+        <v>3823.08706800906</v>
       </c>
       <c r="S14">
-        <v>0.08935665055795583</v>
+        <v>0.1030927530431201</v>
       </c>
       <c r="T14">
-        <v>0.08935665055795583</v>
+        <v>0.1030927530431201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H15">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I15">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J15">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q15">
-        <v>158.879002195899</v>
+        <v>213.6256917673866</v>
       </c>
       <c r="R15">
-        <v>158.879002195899</v>
+        <v>1922.63122590648</v>
       </c>
       <c r="S15">
-        <v>0.04587918340730942</v>
+        <v>0.05184536544405435</v>
       </c>
       <c r="T15">
-        <v>0.04587918340730942</v>
+        <v>0.05184536544405436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H16">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I16">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J16">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N16">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q16">
-        <v>140.9333480127981</v>
+        <v>204.5546902009266</v>
       </c>
       <c r="R16">
-        <v>140.9333480127981</v>
+        <v>1840.99221180834</v>
       </c>
       <c r="S16">
-        <v>0.04069705141849279</v>
+        <v>0.04964390087644609</v>
       </c>
       <c r="T16">
-        <v>0.04069705141849279</v>
+        <v>0.04964390087644609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.67677004913663</v>
+        <v>3.59846</v>
       </c>
       <c r="H17">
-        <v>2.67677004913663</v>
+        <v>10.79538</v>
       </c>
       <c r="I17">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="J17">
-        <v>0.1867037138783938</v>
+        <v>0.2213613186526835</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N17">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q17">
-        <v>37.29923588348468</v>
+        <v>69.13808760526666</v>
       </c>
       <c r="R17">
-        <v>37.29923588348468</v>
+        <v>622.2427884474</v>
       </c>
       <c r="S17">
-        <v>0.01077082849463578</v>
+        <v>0.01677929928906297</v>
       </c>
       <c r="T17">
-        <v>0.01077082849463578</v>
+        <v>0.01677929928906297</v>
       </c>
     </row>
   </sheetData>
